--- a/NOVEMBER/NOVEMBER KITCHEN.xlsx
+++ b/NOVEMBER/NOVEMBER KITCHEN.xlsx
@@ -525,7 +525,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="273">
   <si>
     <t>DATE</t>
   </si>
@@ -875,6 +875,21 @@
     <t>SNAP</t>
   </si>
   <si>
+    <t>PENNE</t>
+  </si>
+  <si>
+    <t>FETTUCHINI</t>
+  </si>
+  <si>
+    <t>DISHWASH WIRE</t>
+  </si>
+  <si>
+    <t>FETA CHEESE</t>
+  </si>
+  <si>
+    <t>ANCHOVY</t>
+  </si>
+  <si>
     <t>TOTAL PRICE</t>
   </si>
   <si>
@@ -1050,9 +1065,6 @@
   </si>
   <si>
     <t>GREENFIELD FRESH MILK</t>
-  </si>
-  <si>
-    <t>FETA CHEESE</t>
   </si>
   <si>
     <t>TOMATO CAN</t>
@@ -3095,13 +3107,13 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3703,9 +3715,9 @@
   <dimension ref="A1:H468"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E212" sqref="E212"/>
+      <selection pane="bottomLeft" activeCell="E224" sqref="E224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -6932,7 +6944,7 @@
         <v>70000</v>
       </c>
       <c r="E182" s="4">
-        <f t="shared" ref="E182:E190" si="6">C182*D182</f>
+        <f t="shared" ref="E182:E191" si="6">C182*D182</f>
         <v>21000</v>
       </c>
       <c r="F182" s="248">
@@ -7077,8 +7089,8 @@
       </c>
       <c r="F190" s="256"/>
     </row>
-    <row r="191" s="235" customFormat="1" spans="1:6">
-      <c r="A191" s="263">
+    <row r="191" s="235" customFormat="1" ht="15" spans="1:6">
+      <c r="A191" s="245">
         <v>45981</v>
       </c>
       <c r="B191" s="246" t="s">
@@ -7091,16 +7103,16 @@
         <v>2000</v>
       </c>
       <c r="E191" s="4">
-        <f>C191*D191</f>
+        <f t="shared" si="6"/>
         <v>32000</v>
       </c>
-      <c r="F191" s="264">
+      <c r="F191" s="248">
         <f>SUM(E191:E212)</f>
         <v>1704000</v>
       </c>
     </row>
-    <row r="192" s="235" customFormat="1" spans="1:6">
-      <c r="A192" s="265"/>
+    <row r="192" s="235" customFormat="1" ht="15" spans="1:6">
+      <c r="A192" s="249"/>
       <c r="B192" s="246" t="s">
         <v>81</v>
       </c>
@@ -7114,10 +7126,10 @@
         <f t="shared" ref="E192:E213" si="7">C192*D192</f>
         <v>210000</v>
       </c>
-      <c r="F192" s="266"/>
-    </row>
-    <row r="193" s="235" customFormat="1" spans="1:6">
-      <c r="A193" s="265"/>
+      <c r="F192" s="250"/>
+    </row>
+    <row r="193" s="235" customFormat="1" ht="15" spans="1:6">
+      <c r="A193" s="249"/>
       <c r="B193" s="246" t="s">
         <v>111</v>
       </c>
@@ -7131,10 +7143,10 @@
         <f t="shared" si="7"/>
         <v>116000</v>
       </c>
-      <c r="F193" s="266"/>
-    </row>
-    <row r="194" s="235" customFormat="1" spans="1:6">
-      <c r="A194" s="265"/>
+      <c r="F193" s="250"/>
+    </row>
+    <row r="194" s="235" customFormat="1" ht="15" spans="1:6">
+      <c r="A194" s="249"/>
       <c r="B194" s="246" t="s">
         <v>65</v>
       </c>
@@ -7148,10 +7160,10 @@
         <f t="shared" si="7"/>
         <v>125000</v>
       </c>
-      <c r="F194" s="266"/>
-    </row>
-    <row r="195" s="235" customFormat="1" spans="1:6">
-      <c r="A195" s="265"/>
+      <c r="F194" s="250"/>
+    </row>
+    <row r="195" s="235" customFormat="1" ht="15" spans="1:6">
+      <c r="A195" s="249"/>
       <c r="B195" s="246" t="s">
         <v>88</v>
       </c>
@@ -7165,10 +7177,10 @@
         <f t="shared" si="7"/>
         <v>275000</v>
       </c>
-      <c r="F195" s="266"/>
-    </row>
-    <row r="196" s="235" customFormat="1" spans="1:6">
-      <c r="A196" s="265"/>
+      <c r="F195" s="250"/>
+    </row>
+    <row r="196" s="235" customFormat="1" ht="15" spans="1:6">
+      <c r="A196" s="249"/>
       <c r="B196" s="246" t="s">
         <v>112</v>
       </c>
@@ -7182,10 +7194,10 @@
         <f t="shared" si="7"/>
         <v>66000</v>
       </c>
-      <c r="F196" s="266"/>
-    </row>
-    <row r="197" s="235" customFormat="1" spans="1:6">
-      <c r="A197" s="265"/>
+      <c r="F196" s="250"/>
+    </row>
+    <row r="197" s="235" customFormat="1" ht="15" spans="1:6">
+      <c r="A197" s="249"/>
       <c r="B197" s="246" t="s">
         <v>11</v>
       </c>
@@ -7199,10 +7211,10 @@
         <f t="shared" si="7"/>
         <v>90000</v>
       </c>
-      <c r="F197" s="266"/>
-    </row>
-    <row r="198" s="235" customFormat="1" spans="1:6">
-      <c r="A198" s="265"/>
+      <c r="F197" s="250"/>
+    </row>
+    <row r="198" s="235" customFormat="1" ht="15" spans="1:6">
+      <c r="A198" s="249"/>
       <c r="B198" s="246" t="s">
         <v>18</v>
       </c>
@@ -7216,10 +7228,10 @@
         <f t="shared" si="7"/>
         <v>340000</v>
       </c>
-      <c r="F198" s="266"/>
-    </row>
-    <row r="199" s="235" customFormat="1" spans="1:6">
-      <c r="A199" s="265"/>
+      <c r="F198" s="250"/>
+    </row>
+    <row r="199" s="235" customFormat="1" ht="15" spans="1:6">
+      <c r="A199" s="249"/>
       <c r="B199" s="246" t="s">
         <v>92</v>
       </c>
@@ -7233,10 +7245,10 @@
         <f t="shared" si="7"/>
         <v>40000</v>
       </c>
-      <c r="F199" s="266"/>
-    </row>
-    <row r="200" s="235" customFormat="1" spans="1:6">
-      <c r="A200" s="265"/>
+      <c r="F199" s="250"/>
+    </row>
+    <row r="200" s="235" customFormat="1" ht="15" spans="1:6">
+      <c r="A200" s="249"/>
       <c r="B200" s="246" t="s">
         <v>47</v>
       </c>
@@ -7250,10 +7262,10 @@
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="F200" s="266"/>
-    </row>
-    <row r="201" s="235" customFormat="1" spans="1:6">
-      <c r="A201" s="265"/>
+      <c r="F200" s="250"/>
+    </row>
+    <row r="201" s="235" customFormat="1" ht="15" spans="1:6">
+      <c r="A201" s="249"/>
       <c r="B201" s="246" t="s">
         <v>30</v>
       </c>
@@ -7267,10 +7279,10 @@
         <f t="shared" si="7"/>
         <v>8000</v>
       </c>
-      <c r="F201" s="266"/>
-    </row>
-    <row r="202" s="235" customFormat="1" spans="1:6">
-      <c r="A202" s="265"/>
+      <c r="F201" s="250"/>
+    </row>
+    <row r="202" s="235" customFormat="1" ht="15" spans="1:6">
+      <c r="A202" s="249"/>
       <c r="B202" s="246" t="s">
         <v>9</v>
       </c>
@@ -7284,10 +7296,10 @@
         <f t="shared" si="7"/>
         <v>6000</v>
       </c>
-      <c r="F202" s="266"/>
-    </row>
-    <row r="203" s="235" customFormat="1" spans="1:6">
-      <c r="A203" s="265"/>
+      <c r="F202" s="250"/>
+    </row>
+    <row r="203" s="235" customFormat="1" ht="15" spans="1:6">
+      <c r="A203" s="249"/>
       <c r="B203" s="246" t="s">
         <v>87</v>
       </c>
@@ -7300,10 +7312,10 @@
       <c r="E203" s="4">
         <v>142000</v>
       </c>
-      <c r="F203" s="266"/>
-    </row>
-    <row r="204" s="235" customFormat="1" spans="1:6">
-      <c r="A204" s="265"/>
+      <c r="F203" s="250"/>
+    </row>
+    <row r="204" s="235" customFormat="1" ht="15" spans="1:6">
+      <c r="A204" s="249"/>
       <c r="B204" s="246" t="s">
         <v>63</v>
       </c>
@@ -7317,10 +7329,10 @@
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="F204" s="266"/>
-    </row>
-    <row r="205" s="235" customFormat="1" spans="1:6">
-      <c r="A205" s="265"/>
+      <c r="F204" s="250"/>
+    </row>
+    <row r="205" s="235" customFormat="1" ht="15" spans="1:6">
+      <c r="A205" s="249"/>
       <c r="B205" s="246" t="s">
         <v>62</v>
       </c>
@@ -7333,10 +7345,10 @@
       <c r="E205" s="4">
         <v>23000</v>
       </c>
-      <c r="F205" s="266"/>
-    </row>
-    <row r="206" s="235" customFormat="1" spans="1:6">
-      <c r="A206" s="265"/>
+      <c r="F205" s="250"/>
+    </row>
+    <row r="206" s="235" customFormat="1" ht="15" spans="1:6">
+      <c r="A206" s="249"/>
       <c r="B206" s="246" t="s">
         <v>113</v>
       </c>
@@ -7349,10 +7361,10 @@
       <c r="E206" s="4">
         <v>32000</v>
       </c>
-      <c r="F206" s="266"/>
-    </row>
-    <row r="207" s="235" customFormat="1" spans="1:6">
-      <c r="A207" s="265"/>
+      <c r="F206" s="250"/>
+    </row>
+    <row r="207" s="235" customFormat="1" ht="15" spans="1:6">
+      <c r="A207" s="249"/>
       <c r="B207" s="246" t="s">
         <v>114</v>
       </c>
@@ -7365,10 +7377,10 @@
       <c r="E207" s="4">
         <v>39000</v>
       </c>
-      <c r="F207" s="266"/>
-    </row>
-    <row r="208" s="235" customFormat="1" spans="1:6">
-      <c r="A208" s="265"/>
+      <c r="F207" s="250"/>
+    </row>
+    <row r="208" s="235" customFormat="1" ht="15" spans="1:6">
+      <c r="A208" s="249"/>
       <c r="B208" s="246" t="s">
         <v>76</v>
       </c>
@@ -7382,10 +7394,10 @@
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="F208" s="266"/>
-    </row>
-    <row r="209" s="235" customFormat="1" spans="1:6">
-      <c r="A209" s="265"/>
+      <c r="F208" s="250"/>
+    </row>
+    <row r="209" s="235" customFormat="1" ht="15" spans="1:6">
+      <c r="A209" s="249"/>
       <c r="B209" s="246" t="s">
         <v>115</v>
       </c>
@@ -7399,10 +7411,10 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-      <c r="F209" s="266"/>
-    </row>
-    <row r="210" s="235" customFormat="1" spans="1:6">
-      <c r="A210" s="265"/>
+      <c r="F209" s="250"/>
+    </row>
+    <row r="210" s="235" customFormat="1" ht="15" spans="1:6">
+      <c r="A210" s="249"/>
       <c r="B210" s="246" t="s">
         <v>70</v>
       </c>
@@ -7413,13 +7425,13 @@
         <v>70000</v>
       </c>
       <c r="E210" s="4">
-        <f>C210*D210</f>
+        <f t="shared" si="7"/>
         <v>28000</v>
       </c>
-      <c r="F210" s="266"/>
-    </row>
-    <row r="211" s="235" customFormat="1" spans="1:6">
-      <c r="A211" s="265"/>
+      <c r="F210" s="250"/>
+    </row>
+    <row r="211" s="235" customFormat="1" ht="15" spans="1:6">
+      <c r="A211" s="249"/>
       <c r="B211" s="246" t="s">
         <v>71</v>
       </c>
@@ -7430,13 +7442,13 @@
         <v>80000</v>
       </c>
       <c r="E211" s="4">
-        <f>C211*D211</f>
+        <f t="shared" si="7"/>
         <v>32000</v>
       </c>
-      <c r="F211" s="266"/>
-    </row>
-    <row r="212" s="235" customFormat="1" spans="1:6">
-      <c r="A212" s="267"/>
+      <c r="F211" s="250"/>
+    </row>
+    <row r="212" s="235" customFormat="1" ht="15" spans="1:6">
+      <c r="A212" s="255"/>
       <c r="B212" s="246" t="s">
         <v>75</v>
       </c>
@@ -7447,143 +7459,292 @@
         <v>30000</v>
       </c>
       <c r="E212" s="4">
-        <f>C212*D212</f>
+        <f t="shared" si="7"/>
         <v>6000</v>
       </c>
-      <c r="F212" s="268"/>
+      <c r="F212" s="256"/>
     </row>
     <row r="213" s="235" customFormat="1" spans="1:6">
-      <c r="A213" s="257"/>
-      <c r="B213" s="246"/>
-      <c r="C213" s="247"/>
-      <c r="D213" s="4"/>
-      <c r="E213" s="4"/>
-      <c r="F213" s="262"/>
+      <c r="A213" s="263">
+        <v>45982</v>
+      </c>
+      <c r="B213" s="246" t="s">
+        <v>116</v>
+      </c>
+      <c r="C213" s="247">
+        <v>2</v>
+      </c>
+      <c r="D213" s="4">
+        <v>30000</v>
+      </c>
+      <c r="E213" s="4">
+        <f t="shared" ref="E213:E228" si="8">C213*D213</f>
+        <v>60000</v>
+      </c>
+      <c r="F213" s="264">
+        <f>SUM(E213:E228)</f>
+        <v>2337000</v>
+      </c>
     </row>
     <row r="214" s="235" customFormat="1" spans="1:6">
-      <c r="A214" s="257"/>
-      <c r="B214" s="246"/>
-      <c r="C214" s="247"/>
-      <c r="D214" s="4"/>
-      <c r="E214" s="4"/>
-      <c r="F214" s="262"/>
+      <c r="A214" s="265"/>
+      <c r="B214" s="246" t="s">
+        <v>117</v>
+      </c>
+      <c r="C214" s="247">
+        <v>2</v>
+      </c>
+      <c r="D214" s="4">
+        <v>25000</v>
+      </c>
+      <c r="E214" s="4">
+        <f t="shared" si="8"/>
+        <v>50000</v>
+      </c>
+      <c r="F214" s="266"/>
     </row>
     <row r="215" s="235" customFormat="1" spans="1:6">
-      <c r="A215" s="257"/>
-      <c r="B215" s="246"/>
-      <c r="C215" s="247"/>
-      <c r="D215" s="4"/>
-      <c r="E215" s="4"/>
-      <c r="F215" s="262"/>
+      <c r="A215" s="265"/>
+      <c r="B215" s="246" t="s">
+        <v>20</v>
+      </c>
+      <c r="C215" s="247">
+        <v>1</v>
+      </c>
+      <c r="D215" s="4">
+        <v>100000</v>
+      </c>
+      <c r="E215" s="4">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+      <c r="F215" s="266"/>
     </row>
     <row r="216" s="235" customFormat="1" spans="1:6">
-      <c r="A216" s="257"/>
-      <c r="B216" s="246"/>
-      <c r="C216" s="247"/>
-      <c r="D216" s="4"/>
-      <c r="E216" s="4"/>
-      <c r="F216" s="262"/>
+      <c r="A216" s="265"/>
+      <c r="B216" s="246" t="s">
+        <v>118</v>
+      </c>
+      <c r="C216" s="247">
+        <v>1</v>
+      </c>
+      <c r="D216" s="4">
+        <v>60000</v>
+      </c>
+      <c r="E216" s="4">
+        <f t="shared" si="8"/>
+        <v>60000</v>
+      </c>
+      <c r="F216" s="266"/>
     </row>
     <row r="217" s="235" customFormat="1" spans="1:6">
-      <c r="A217" s="257"/>
-      <c r="B217" s="246"/>
-      <c r="C217" s="247"/>
-      <c r="D217" s="4"/>
-      <c r="E217" s="4"/>
-      <c r="F217" s="262"/>
+      <c r="A217" s="265"/>
+      <c r="B217" s="246" t="s">
+        <v>12</v>
+      </c>
+      <c r="C217" s="247">
+        <v>2</v>
+      </c>
+      <c r="D217" s="4">
+        <v>35000</v>
+      </c>
+      <c r="E217" s="4">
+        <f t="shared" si="8"/>
+        <v>70000</v>
+      </c>
+      <c r="F217" s="266"/>
     </row>
     <row r="218" s="235" customFormat="1" spans="1:6">
-      <c r="A218" s="257"/>
-      <c r="B218" s="246"/>
-      <c r="C218" s="247"/>
-      <c r="D218" s="4"/>
-      <c r="E218" s="4"/>
-      <c r="F218" s="262"/>
+      <c r="A218" s="265"/>
+      <c r="B218" s="246" t="s">
+        <v>112</v>
+      </c>
+      <c r="C218" s="247">
+        <v>1</v>
+      </c>
+      <c r="D218" s="4">
+        <v>22000</v>
+      </c>
+      <c r="E218" s="4">
+        <f t="shared" si="8"/>
+        <v>22000</v>
+      </c>
+      <c r="F218" s="266"/>
     </row>
     <row r="219" s="235" customFormat="1" spans="1:6">
-      <c r="A219" s="257"/>
-      <c r="B219" s="246"/>
-      <c r="C219" s="247"/>
-      <c r="D219" s="4"/>
-      <c r="E219" s="4"/>
-      <c r="F219" s="262"/>
+      <c r="A219" s="265"/>
+      <c r="B219" s="246" t="s">
+        <v>11</v>
+      </c>
+      <c r="C219" s="247">
+        <v>3</v>
+      </c>
+      <c r="D219" s="4">
+        <v>90000</v>
+      </c>
+      <c r="E219" s="4">
+        <f t="shared" si="8"/>
+        <v>270000</v>
+      </c>
+      <c r="F219" s="266"/>
     </row>
     <row r="220" s="235" customFormat="1" spans="1:6">
-      <c r="A220" s="257"/>
-      <c r="B220" s="246"/>
-      <c r="C220" s="247"/>
-      <c r="D220" s="4"/>
-      <c r="E220" s="4"/>
-      <c r="F220" s="262"/>
+      <c r="A220" s="265"/>
+      <c r="B220" s="246" t="s">
+        <v>119</v>
+      </c>
+      <c r="C220" s="247">
+        <v>2</v>
+      </c>
+      <c r="D220" s="4">
+        <v>90000</v>
+      </c>
+      <c r="E220" s="4">
+        <f t="shared" si="8"/>
+        <v>180000</v>
+      </c>
+      <c r="F220" s="266"/>
     </row>
     <row r="221" s="235" customFormat="1" spans="1:6">
-      <c r="A221" s="257"/>
-      <c r="B221" s="246"/>
-      <c r="C221" s="247"/>
-      <c r="D221" s="4"/>
-      <c r="E221" s="4"/>
-      <c r="F221" s="262"/>
+      <c r="A221" s="265"/>
+      <c r="B221" s="246" t="s">
+        <v>57</v>
+      </c>
+      <c r="C221" s="247">
+        <v>3</v>
+      </c>
+      <c r="D221" s="4">
+        <v>45000</v>
+      </c>
+      <c r="E221" s="4">
+        <f t="shared" si="8"/>
+        <v>135000</v>
+      </c>
+      <c r="F221" s="266"/>
     </row>
     <row r="222" s="235" customFormat="1" spans="1:6">
-      <c r="A222" s="257"/>
-      <c r="B222" s="246"/>
-      <c r="C222" s="247"/>
-      <c r="D222" s="4"/>
-      <c r="E222" s="4"/>
-      <c r="F222" s="262"/>
+      <c r="A222" s="265"/>
+      <c r="B222" s="246" t="s">
+        <v>24</v>
+      </c>
+      <c r="C222" s="247">
+        <v>2</v>
+      </c>
+      <c r="D222" s="4">
+        <v>170000</v>
+      </c>
+      <c r="E222" s="4">
+        <f t="shared" si="8"/>
+        <v>340000</v>
+      </c>
+      <c r="F222" s="266"/>
     </row>
     <row r="223" s="235" customFormat="1" spans="1:6">
-      <c r="A223" s="257"/>
-      <c r="B223" s="246"/>
-      <c r="C223" s="247"/>
-      <c r="D223" s="4"/>
-      <c r="E223" s="4"/>
-      <c r="F223" s="262"/>
+      <c r="A223" s="265"/>
+      <c r="B223" s="246" t="s">
+        <v>48</v>
+      </c>
+      <c r="C223" s="247">
+        <v>2</v>
+      </c>
+      <c r="D223" s="4">
+        <v>60000</v>
+      </c>
+      <c r="E223" s="4">
+        <f t="shared" si="8"/>
+        <v>120000</v>
+      </c>
+      <c r="F223" s="266"/>
     </row>
     <row r="224" s="235" customFormat="1" spans="1:6">
-      <c r="A224" s="257"/>
-      <c r="B224" s="246"/>
-      <c r="C224" s="247"/>
-      <c r="D224" s="4"/>
-      <c r="E224" s="4"/>
-      <c r="F224" s="262"/>
+      <c r="A224" s="265"/>
+      <c r="B224" s="246" t="s">
+        <v>49</v>
+      </c>
+      <c r="C224" s="247">
+        <v>1</v>
+      </c>
+      <c r="D224" s="4">
+        <v>200000</v>
+      </c>
+      <c r="E224" s="4">
+        <f t="shared" si="8"/>
+        <v>200000</v>
+      </c>
+      <c r="F224" s="266"/>
     </row>
     <row r="225" s="235" customFormat="1" spans="1:6">
-      <c r="A225" s="257"/>
-      <c r="B225" s="246"/>
-      <c r="C225" s="247"/>
-      <c r="D225" s="4"/>
-      <c r="E225" s="4"/>
-      <c r="F225" s="262"/>
+      <c r="A225" s="265"/>
+      <c r="B225" s="246" t="s">
+        <v>100</v>
+      </c>
+      <c r="C225" s="247">
+        <v>2</v>
+      </c>
+      <c r="D225" s="4">
+        <v>75000</v>
+      </c>
+      <c r="E225" s="4">
+        <f t="shared" si="8"/>
+        <v>150000</v>
+      </c>
+      <c r="F225" s="266"/>
     </row>
     <row r="226" s="235" customFormat="1" spans="1:6">
-      <c r="A226" s="257"/>
-      <c r="B226" s="246"/>
-      <c r="C226" s="247"/>
-      <c r="D226" s="4"/>
-      <c r="E226" s="4"/>
-      <c r="F226" s="262"/>
+      <c r="A226" s="265"/>
+      <c r="B226" s="246" t="s">
+        <v>91</v>
+      </c>
+      <c r="C226" s="247">
+        <v>0.3</v>
+      </c>
+      <c r="D226" s="4">
+        <v>100000</v>
+      </c>
+      <c r="E226" s="4">
+        <f t="shared" si="8"/>
+        <v>30000</v>
+      </c>
+      <c r="F226" s="266"/>
     </row>
     <row r="227" s="235" customFormat="1" spans="1:6">
-      <c r="A227" s="257"/>
-      <c r="B227" s="246"/>
-      <c r="C227" s="269"/>
-      <c r="D227" s="4"/>
-      <c r="E227" s="4"/>
-      <c r="F227" s="262"/>
+      <c r="A227" s="265"/>
+      <c r="B227" s="246" t="s">
+        <v>25</v>
+      </c>
+      <c r="C227" s="267">
+        <v>1</v>
+      </c>
+      <c r="D227" s="4">
+        <v>330000</v>
+      </c>
+      <c r="E227" s="4">
+        <f t="shared" si="8"/>
+        <v>330000</v>
+      </c>
+      <c r="F227" s="266"/>
     </row>
     <row r="228" s="235" customFormat="1" spans="1:6">
-      <c r="A228" s="257"/>
-      <c r="B228" s="246"/>
-      <c r="C228" s="269"/>
-      <c r="D228" s="4"/>
-      <c r="E228" s="4"/>
-      <c r="F228" s="262"/>
+      <c r="A228" s="268"/>
+      <c r="B228" s="246" t="s">
+        <v>120</v>
+      </c>
+      <c r="C228" s="267">
+        <v>1</v>
+      </c>
+      <c r="D228" s="4">
+        <v>220000</v>
+      </c>
+      <c r="E228" s="4">
+        <f t="shared" si="8"/>
+        <v>220000</v>
+      </c>
+      <c r="F228" s="269"/>
     </row>
     <row r="229" s="235" customFormat="1" spans="1:6">
       <c r="A229" s="257"/>
       <c r="B229" s="246"/>
-      <c r="C229" s="269"/>
+      <c r="C229" s="267"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
       <c r="F229" s="262"/>
@@ -7591,7 +7752,7 @@
     <row r="230" s="235" customFormat="1" spans="1:6">
       <c r="A230" s="257"/>
       <c r="B230" s="246"/>
-      <c r="C230" s="269"/>
+      <c r="C230" s="267"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
       <c r="F230" s="262"/>
@@ -7599,7 +7760,7 @@
     <row r="231" s="235" customFormat="1" spans="1:6">
       <c r="A231" s="257"/>
       <c r="B231" s="246"/>
-      <c r="C231" s="269"/>
+      <c r="C231" s="267"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
       <c r="F231" s="262"/>
@@ -7607,7 +7768,7 @@
     <row r="232" s="235" customFormat="1" spans="1:6">
       <c r="A232" s="257"/>
       <c r="B232" s="246"/>
-      <c r="C232" s="269"/>
+      <c r="C232" s="267"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
       <c r="F232" s="262"/>
@@ -7615,7 +7776,7 @@
     <row r="233" s="235" customFormat="1" spans="1:6">
       <c r="A233" s="257"/>
       <c r="B233" s="246"/>
-      <c r="C233" s="269"/>
+      <c r="C233" s="267"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
       <c r="F233" s="262"/>
@@ -7623,7 +7784,7 @@
     <row r="234" s="235" customFormat="1" spans="1:6">
       <c r="A234" s="257"/>
       <c r="B234" s="246"/>
-      <c r="C234" s="269"/>
+      <c r="C234" s="267"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
       <c r="F234" s="262"/>
@@ -7631,7 +7792,7 @@
     <row r="235" s="235" customFormat="1" spans="1:6">
       <c r="A235" s="257"/>
       <c r="B235" s="246"/>
-      <c r="C235" s="269"/>
+      <c r="C235" s="267"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
       <c r="F235" s="262"/>
@@ -7639,7 +7800,7 @@
     <row r="236" s="235" customFormat="1" spans="1:6">
       <c r="A236" s="257"/>
       <c r="B236" s="246"/>
-      <c r="C236" s="269"/>
+      <c r="C236" s="267"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
       <c r="F236" s="262"/>
@@ -7647,7 +7808,7 @@
     <row r="237" s="235" customFormat="1" spans="1:6">
       <c r="A237" s="257"/>
       <c r="B237" s="246"/>
-      <c r="C237" s="269"/>
+      <c r="C237" s="267"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
       <c r="F237" s="262"/>
@@ -7655,7 +7816,7 @@
     <row r="238" s="235" customFormat="1" spans="1:6">
       <c r="A238" s="257"/>
       <c r="B238" s="246"/>
-      <c r="C238" s="269"/>
+      <c r="C238" s="267"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
       <c r="F238" s="262"/>
@@ -7663,7 +7824,7 @@
     <row r="239" s="235" customFormat="1" spans="1:6">
       <c r="A239" s="257"/>
       <c r="B239" s="246"/>
-      <c r="C239" s="269"/>
+      <c r="C239" s="267"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
       <c r="F239" s="262"/>
@@ -7671,7 +7832,7 @@
     <row r="240" s="235" customFormat="1" spans="1:6">
       <c r="A240" s="257"/>
       <c r="B240" s="246"/>
-      <c r="C240" s="269"/>
+      <c r="C240" s="267"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
       <c r="F240" s="262"/>
@@ -7679,7 +7840,7 @@
     <row r="241" s="235" customFormat="1" spans="1:6">
       <c r="A241" s="257"/>
       <c r="B241" s="246"/>
-      <c r="C241" s="269"/>
+      <c r="C241" s="267"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
       <c r="F241" s="262"/>
@@ -7687,7 +7848,7 @@
     <row r="242" s="235" customFormat="1" spans="1:6">
       <c r="A242" s="257"/>
       <c r="B242" s="246"/>
-      <c r="C242" s="269"/>
+      <c r="C242" s="267"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
       <c r="F242" s="262"/>
@@ -7695,7 +7856,7 @@
     <row r="243" s="235" customFormat="1" spans="1:6">
       <c r="A243" s="257"/>
       <c r="B243" s="246"/>
-      <c r="C243" s="269"/>
+      <c r="C243" s="267"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
       <c r="F243" s="262"/>
@@ -7703,7 +7864,7 @@
     <row r="244" s="235" customFormat="1" spans="1:6">
       <c r="A244" s="257"/>
       <c r="B244" s="246"/>
-      <c r="C244" s="269"/>
+      <c r="C244" s="267"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
       <c r="F244" s="262"/>
@@ -9492,7 +9653,7 @@
       <c r="C467" s="238"/>
       <c r="F467" s="272">
         <f>SUM(F2:F466)</f>
-        <v>24794000</v>
+        <v>27131000</v>
       </c>
     </row>
     <row r="468" s="235" customFormat="1" spans="1:6">
@@ -9502,7 +9663,7 @@
       <c r="F468" s="239"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="36">
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="A16:A26"/>
     <mergeCell ref="A27:A44"/>
@@ -9520,6 +9681,7 @@
     <mergeCell ref="A166:A180"/>
     <mergeCell ref="A182:A190"/>
     <mergeCell ref="A191:A212"/>
+    <mergeCell ref="A213:A228"/>
     <mergeCell ref="F2:F15"/>
     <mergeCell ref="F16:F26"/>
     <mergeCell ref="F27:F44"/>
@@ -9537,6 +9699,7 @@
     <mergeCell ref="F166:F180"/>
     <mergeCell ref="F182:F190"/>
     <mergeCell ref="F191:F212"/>
+    <mergeCell ref="F213:F228"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -9571,16 +9734,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F1" s="52" t="s">
         <v>3</v>
@@ -9600,7 +9763,7 @@
         <v>113900</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D2" s="14">
         <v>1</v>
@@ -9727,16 +9890,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>3</v>
@@ -9748,7 +9911,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="76" customHeight="1" spans="1:9">
@@ -9855,16 +10018,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>3</v>
@@ -9884,7 +10047,7 @@
         <v>1919</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D2" s="14">
         <v>5</v>
@@ -9909,7 +10072,7 @@
       <c r="A3" s="38"/>
       <c r="B3" s="39"/>
       <c r="C3" s="13" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D3" s="24">
         <v>1</v>
@@ -9926,7 +10089,7 @@
     </row>
     <row r="4" customFormat="1" ht="39" customHeight="1" spans="1:8">
       <c r="A4" s="40" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B4" s="41"/>
       <c r="C4" s="42"/>
@@ -9980,13 +10143,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>3</v>
@@ -10003,7 +10166,7 @@
         <v>45968</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C2" s="14">
         <v>1</v>
@@ -10027,7 +10190,7 @@
     <row r="3" customFormat="1" ht="50" customHeight="1" spans="1:7">
       <c r="A3" s="23"/>
       <c r="B3" s="13" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C3" s="24">
         <v>1</v>
@@ -10045,7 +10208,7 @@
     <row r="4" customFormat="1" ht="50" customHeight="1" spans="1:7">
       <c r="A4" s="23"/>
       <c r="B4" s="13" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C4" s="24">
         <v>2</v>
@@ -10063,7 +10226,7 @@
     <row r="5" customFormat="1" ht="50" customHeight="1" spans="1:7">
       <c r="A5" s="23"/>
       <c r="B5" s="13" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C5" s="24">
         <v>1</v>
@@ -10081,7 +10244,7 @@
     <row r="6" customFormat="1" ht="50" customHeight="1" spans="1:7">
       <c r="A6" s="23"/>
       <c r="B6" s="26" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C6" s="27">
         <v>1</v>
@@ -10101,7 +10264,7 @@
         <v>45975</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C7" s="32">
         <v>3</v>
@@ -10125,7 +10288,7 @@
     <row r="8" customFormat="1" ht="80" customHeight="1" spans="1:7">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C8" s="32">
         <v>1</v>
@@ -10143,7 +10306,7 @@
     <row r="9" customFormat="1" ht="80" customHeight="1" spans="1:7">
       <c r="A9" s="30"/>
       <c r="B9" s="31" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C9" s="32">
         <v>1</v>
@@ -10160,7 +10323,7 @@
     </row>
     <row r="10" customFormat="1" ht="39" customHeight="1" spans="1:7">
       <c r="A10" s="30" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -10209,13 +10372,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>3</v>
@@ -10238,7 +10401,7 @@
     </row>
     <row r="3" customFormat="1" ht="39" customHeight="1" spans="1:7">
       <c r="A3" s="19" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -10277,24 +10440,24 @@
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B2" s="4">
         <f>'BUK BUNGA (Groceries)'!F467</f>
-        <v>24794000</v>
+        <v>27131000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B3" s="4">
         <f>'SEDANA JAYA (Groceries)'!F670</f>
@@ -10303,7 +10466,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B4" s="4">
         <f>'RAFI SEAFOOD (Seafood)'!D61</f>
@@ -10312,7 +10475,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B5" s="4">
         <f>'MAMA RADA PRODUCTION (Dumpling)'!H12</f>
@@ -10321,7 +10484,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B6" s="5">
         <f>'KSP (Chicken)'!E13</f>
@@ -10330,7 +10493,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B7" s="4">
         <f>'SURYA CIPTA NIAGA BALI (Beef)'!E9</f>
@@ -10339,7 +10502,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B8" s="4">
         <f>'BAYU AGNI MERTA (Gas)'!E4</f>
@@ -10348,7 +10511,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B9" s="5">
         <f>'Joy Green (Mix Berry)'!D3</f>
@@ -10357,7 +10520,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B10" s="5">
         <f>'CELEBRITY BAKERY (Bakery)'!E5</f>
@@ -10367,7 +10530,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B11" s="5">
         <f>'Krop (Edible flower)'!H7</f>
@@ -10376,7 +10539,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B12" s="5">
         <f>'Boiler (Dumplings&amp;Syrniki)'!E5</f>
@@ -10386,7 +10549,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B13" s="5">
         <f>'Abdi Jaya (TKW, Vacuum Bag)'!D4</f>
@@ -10395,7 +10558,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B14" s="5">
         <f>'Dishy Soap (Chemicals)'!G10</f>
@@ -10404,7 +10567,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B15" s="5">
         <f>'Abiseka (Fresh Milk)'!G3</f>
@@ -10417,7 +10580,7 @@
       </c>
       <c r="B16" s="9">
         <f>SUM(B2:B12)</f>
-        <v>96707240</v>
+        <v>99044240</v>
       </c>
     </row>
   </sheetData>
@@ -10464,7 +10627,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="212" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F1" s="212" t="s">
         <v>5</v>
@@ -10475,7 +10638,7 @@
         <v>45962</v>
       </c>
       <c r="B2" s="214" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C2" s="215">
         <v>0.05</v>
@@ -10683,7 +10846,7 @@
     <row r="14" s="206" customFormat="1" spans="1:6">
       <c r="A14" s="218"/>
       <c r="B14" s="221" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C14" s="215">
         <v>0.2</v>
@@ -10700,7 +10863,7 @@
     <row r="15" s="206" customFormat="1" spans="1:6">
       <c r="A15" s="218"/>
       <c r="B15" s="221" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C15" s="215">
         <v>1</v>
@@ -10753,7 +10916,7 @@
         <v>45963</v>
       </c>
       <c r="B18" s="221" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C18" s="215">
         <v>2</v>
@@ -10773,7 +10936,7 @@
     <row r="19" s="206" customFormat="1" spans="1:6">
       <c r="A19" s="218"/>
       <c r="B19" s="221" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C19" s="215">
         <v>2</v>
@@ -10790,7 +10953,7 @@
     <row r="20" s="206" customFormat="1" spans="1:6">
       <c r="A20" s="218"/>
       <c r="B20" s="221" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C20" s="215">
         <v>5</v>
@@ -10841,7 +11004,7 @@
     <row r="23" s="206" customFormat="1" spans="1:6">
       <c r="A23" s="218"/>
       <c r="B23" s="221" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C23" s="215">
         <v>5</v>
@@ -10875,7 +11038,7 @@
     <row r="25" s="206" customFormat="1" spans="1:6">
       <c r="A25" s="218"/>
       <c r="B25" s="221" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C25" s="215">
         <v>2</v>
@@ -10892,7 +11055,7 @@
     <row r="26" s="206" customFormat="1" spans="1:6">
       <c r="A26" s="218"/>
       <c r="B26" s="221" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C26" s="215">
         <v>0.1</v>
@@ -10943,7 +11106,7 @@
     <row r="29" s="206" customFormat="1" spans="1:6">
       <c r="A29" s="218"/>
       <c r="B29" s="221" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C29" s="215">
         <v>1</v>
@@ -10994,7 +11157,7 @@
     <row r="32" s="206" customFormat="1" spans="1:6">
       <c r="A32" s="218"/>
       <c r="B32" s="221" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C32" s="215">
         <v>1</v>
@@ -11011,7 +11174,7 @@
     <row r="33" s="206" customFormat="1" spans="1:6">
       <c r="A33" s="218"/>
       <c r="B33" s="221" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C33" s="215">
         <v>0.2</v>
@@ -11115,7 +11278,7 @@
         <v>45963</v>
       </c>
       <c r="B39" s="221" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C39" s="215">
         <v>1</v>
@@ -11208,7 +11371,7 @@
     <row r="44" spans="1:6">
       <c r="A44" s="218"/>
       <c r="B44" s="221" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C44" s="215">
         <v>0.1</v>
@@ -11293,7 +11456,7 @@
     <row r="49" spans="1:6">
       <c r="A49" s="218"/>
       <c r="B49" s="221" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C49" s="215">
         <v>5</v>
@@ -11310,7 +11473,7 @@
     <row r="50" spans="1:6">
       <c r="A50" s="218"/>
       <c r="B50" s="221" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C50" s="215">
         <v>2.5</v>
@@ -11327,7 +11490,7 @@
     <row r="51" spans="1:6">
       <c r="A51" s="218"/>
       <c r="B51" s="221" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C51" s="215">
         <v>8.6</v>
@@ -11412,7 +11575,7 @@
     <row r="56" spans="1:6">
       <c r="A56" s="218"/>
       <c r="B56" s="221" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C56" s="215">
         <v>7.5</v>
@@ -11429,7 +11592,7 @@
     <row r="57" spans="1:6">
       <c r="A57" s="218"/>
       <c r="B57" s="221" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C57" s="215">
         <v>0.2</v>
@@ -11446,7 +11609,7 @@
     <row r="58" spans="1:6">
       <c r="A58" s="218"/>
       <c r="B58" s="221" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C58" s="215">
         <v>1</v>
@@ -11463,7 +11626,7 @@
     <row r="59" spans="1:6">
       <c r="A59" s="218"/>
       <c r="B59" s="221" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C59" s="215">
         <v>0.6</v>
@@ -11587,7 +11750,7 @@
     <row r="66" spans="1:6">
       <c r="A66" s="218"/>
       <c r="B66" s="221" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C66" s="215">
         <v>0.5</v>
@@ -11604,7 +11767,7 @@
     <row r="67" spans="1:6">
       <c r="A67" s="218"/>
       <c r="B67" s="221" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C67" s="215">
         <v>0.1</v>
@@ -11621,7 +11784,7 @@
     <row r="68" spans="1:6">
       <c r="A68" s="218"/>
       <c r="B68" s="221" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C68" s="215">
         <v>0.2</v>
@@ -11672,7 +11835,7 @@
     <row r="71" spans="1:6">
       <c r="A71" s="218"/>
       <c r="B71" s="221" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C71" s="215">
         <v>1</v>
@@ -11706,7 +11869,7 @@
     <row r="73" spans="1:6">
       <c r="A73" s="218"/>
       <c r="B73" s="221" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C73" s="215">
         <v>0.05</v>
@@ -11723,7 +11886,7 @@
     <row r="74" spans="1:6">
       <c r="A74" s="218"/>
       <c r="B74" s="221" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C74" s="215">
         <v>1</v>
@@ -11791,7 +11954,7 @@
     <row r="78" spans="1:6">
       <c r="A78" s="218"/>
       <c r="B78" s="221" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C78" s="215">
         <v>0.1</v>
@@ -11808,7 +11971,7 @@
     <row r="79" spans="1:6">
       <c r="A79" s="218"/>
       <c r="B79" s="221" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C79" s="215">
         <v>5</v>
@@ -11876,7 +12039,7 @@
     <row r="83" spans="1:6">
       <c r="A83" s="218"/>
       <c r="B83" s="221" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C83" s="215">
         <v>2</v>
@@ -11893,7 +12056,7 @@
     <row r="84" spans="1:6">
       <c r="A84" s="222"/>
       <c r="B84" s="221" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C84" s="215">
         <v>3</v>
@@ -11988,7 +12151,7 @@
     <row r="89" spans="1:6">
       <c r="A89" s="218"/>
       <c r="B89" s="221" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C89" s="215">
         <v>1</v>
@@ -12005,7 +12168,7 @@
     <row r="90" spans="1:6">
       <c r="A90" s="218"/>
       <c r="B90" s="221" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C90" s="215">
         <v>1</v>
@@ -12022,7 +12185,7 @@
     <row r="91" spans="1:6">
       <c r="A91" s="218"/>
       <c r="B91" s="221" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C91" s="215">
         <v>2</v>
@@ -12056,7 +12219,7 @@
     <row r="93" spans="1:6">
       <c r="A93" s="218"/>
       <c r="B93" s="221" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C93" s="215">
         <v>5</v>
@@ -12073,7 +12236,7 @@
     <row r="94" spans="1:6">
       <c r="A94" s="218"/>
       <c r="B94" s="221" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C94" s="215">
         <v>3</v>
@@ -12125,7 +12288,7 @@
     <row r="97" spans="1:6">
       <c r="A97" s="218"/>
       <c r="B97" s="221" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C97" s="215">
         <v>1</v>
@@ -12193,7 +12356,7 @@
     <row r="101" spans="1:6">
       <c r="A101" s="218"/>
       <c r="B101" s="221" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C101" s="215">
         <v>0.3</v>
@@ -12244,7 +12407,7 @@
     <row r="104" spans="1:6">
       <c r="A104" s="218"/>
       <c r="B104" s="221" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C104" s="215">
         <v>0.25</v>
@@ -12261,7 +12424,7 @@
     <row r="105" spans="1:6">
       <c r="A105" s="218"/>
       <c r="B105" s="221" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C105" s="215">
         <v>0.2</v>
@@ -12297,7 +12460,7 @@
         <v>45967</v>
       </c>
       <c r="B107" s="221" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C107" s="215">
         <v>0.3</v>
@@ -12334,7 +12497,7 @@
     <row r="109" spans="1:6">
       <c r="A109" s="222"/>
       <c r="B109" s="221" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C109" s="215">
         <v>1</v>
@@ -12424,7 +12587,7 @@
     <row r="114" spans="1:6">
       <c r="A114" s="218"/>
       <c r="B114" s="221" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C114" s="215">
         <v>0.5</v>
@@ -12458,7 +12621,7 @@
     <row r="116" spans="1:6">
       <c r="A116" s="218"/>
       <c r="B116" s="221" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C116" s="215">
         <v>0.5</v>
@@ -12475,7 +12638,7 @@
     <row r="117" spans="1:6">
       <c r="A117" s="218"/>
       <c r="B117" s="221" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C117" s="215">
         <v>0.1</v>
@@ -12543,7 +12706,7 @@
     <row r="121" spans="1:6">
       <c r="A121" s="218"/>
       <c r="B121" s="221" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C121" s="215">
         <v>0.5</v>
@@ -12628,7 +12791,7 @@
     <row r="126" spans="1:6">
       <c r="A126" s="218"/>
       <c r="B126" s="221" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C126" s="215">
         <v>0.1</v>
@@ -12696,7 +12859,7 @@
     <row r="130" spans="1:6">
       <c r="A130" s="222"/>
       <c r="B130" s="221" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C130" s="215">
         <v>3.3</v>
@@ -12715,7 +12878,7 @@
         <v>45968</v>
       </c>
       <c r="B131" s="221" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C131" s="215">
         <v>5</v>
@@ -12735,7 +12898,7 @@
     <row r="132" spans="1:6">
       <c r="A132" s="218"/>
       <c r="B132" s="221" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C132" s="215">
         <v>1</v>
@@ -12752,7 +12915,7 @@
     <row r="133" spans="1:6">
       <c r="A133" s="218"/>
       <c r="B133" s="221" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C133" s="215">
         <v>3</v>
@@ -12769,7 +12932,7 @@
     <row r="134" spans="1:6">
       <c r="A134" s="218"/>
       <c r="B134" s="221" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C134" s="215">
         <v>2</v>
@@ -12786,7 +12949,7 @@
     <row r="135" spans="1:6">
       <c r="A135" s="218"/>
       <c r="B135" s="221" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C135" s="215">
         <v>0.5</v>
@@ -12803,7 +12966,7 @@
     <row r="136" spans="1:6">
       <c r="A136" s="218"/>
       <c r="B136" s="221" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C136" s="215">
         <v>0.5</v>
@@ -12820,7 +12983,7 @@
     <row r="137" spans="1:6">
       <c r="A137" s="218"/>
       <c r="B137" s="221" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C137" s="215">
         <v>3</v>
@@ -12837,7 +13000,7 @@
     <row r="138" spans="1:6">
       <c r="A138" s="222"/>
       <c r="B138" s="221" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C138" s="215">
         <v>3</v>
@@ -12856,7 +13019,7 @@
         <v>45969</v>
       </c>
       <c r="B139" s="221" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C139" s="215">
         <v>0.5</v>
@@ -12944,7 +13107,7 @@
     <row r="144" spans="1:6">
       <c r="A144" s="218"/>
       <c r="B144" s="221" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C144" s="215">
         <v>1</v>
@@ -13012,7 +13175,7 @@
     <row r="148" spans="1:6">
       <c r="A148" s="218"/>
       <c r="B148" s="221" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C148" s="215">
         <v>2</v>
@@ -13046,7 +13209,7 @@
     <row r="150" spans="1:6">
       <c r="A150" s="218"/>
       <c r="B150" s="221" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C150" s="215">
         <v>2</v>
@@ -13080,7 +13243,7 @@
     <row r="152" spans="1:6">
       <c r="A152" s="218"/>
       <c r="B152" s="221" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C152" s="215">
         <v>5</v>
@@ -13097,7 +13260,7 @@
     <row r="153" spans="1:6">
       <c r="A153" s="218"/>
       <c r="B153" s="221" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C153" s="215">
         <v>1</v>
@@ -13114,7 +13277,7 @@
     <row r="154" spans="1:6">
       <c r="A154" s="218"/>
       <c r="B154" s="221" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C154" s="215">
         <v>0.5</v>
@@ -13131,7 +13294,7 @@
     <row r="155" spans="1:6">
       <c r="A155" s="218"/>
       <c r="B155" s="221" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C155" s="215">
         <v>0.1</v>
@@ -13184,7 +13347,7 @@
         <v>45970</v>
       </c>
       <c r="B158" s="221" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C158" s="215">
         <v>1</v>
@@ -13238,7 +13401,7 @@
     <row r="161" spans="1:6">
       <c r="A161" s="218"/>
       <c r="B161" s="221" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C161" s="215">
         <v>0.07</v>
@@ -13255,7 +13418,7 @@
     <row r="162" spans="1:6">
       <c r="A162" s="218"/>
       <c r="B162" s="221" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C162" s="215">
         <v>0.05</v>
@@ -13272,7 +13435,7 @@
     <row r="163" spans="1:6">
       <c r="A163" s="218"/>
       <c r="B163" s="221" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C163" s="215">
         <v>0.15</v>
@@ -13323,7 +13486,7 @@
     <row r="166" spans="1:8">
       <c r="A166" s="218"/>
       <c r="B166" s="221" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C166" s="215">
         <v>5</v>
@@ -13341,7 +13504,7 @@
     <row r="167" spans="1:6">
       <c r="A167" s="218"/>
       <c r="B167" s="221" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C167" s="215">
         <v>3</v>
@@ -13375,7 +13538,7 @@
     <row r="169" spans="1:6">
       <c r="A169" s="218"/>
       <c r="B169" s="221" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C169" s="215">
         <v>0.5</v>
@@ -13392,7 +13555,7 @@
     <row r="170" spans="1:6">
       <c r="A170" s="218"/>
       <c r="B170" s="221" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C170" s="215">
         <v>3</v>
@@ -13409,7 +13572,7 @@
     <row r="171" spans="1:6">
       <c r="A171" s="218"/>
       <c r="B171" s="221" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C171" s="215">
         <v>0.3</v>
@@ -13443,7 +13606,7 @@
     <row r="173" spans="1:6">
       <c r="A173" s="218"/>
       <c r="B173" s="221" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C173" s="215">
         <v>0.3</v>
@@ -13477,7 +13640,7 @@
     <row r="175" spans="1:6">
       <c r="A175" s="222"/>
       <c r="B175" s="221" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C175" s="215">
         <v>1</v>
@@ -13496,7 +13659,7 @@
         <v>45971</v>
       </c>
       <c r="B176" s="221" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C176" s="215">
         <v>0.1</v>
@@ -13533,7 +13696,7 @@
     <row r="178" spans="1:6">
       <c r="A178" s="218"/>
       <c r="B178" s="221" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C178" s="215">
         <v>0.1</v>
@@ -13584,7 +13747,7 @@
     <row r="181" spans="1:6">
       <c r="A181" s="218"/>
       <c r="B181" s="221" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C181" s="215">
         <v>0.5</v>
@@ -13618,7 +13781,7 @@
     <row r="183" spans="1:6">
       <c r="A183" s="218"/>
       <c r="B183" s="221" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C183" s="215">
         <v>4</v>
@@ -13635,7 +13798,7 @@
     <row r="184" spans="1:6">
       <c r="A184" s="218"/>
       <c r="B184" s="221" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C184" s="215">
         <v>3</v>
@@ -13652,7 +13815,7 @@
     <row r="185" spans="1:6">
       <c r="A185" s="218"/>
       <c r="B185" s="221" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C185" s="215">
         <v>5</v>
@@ -13686,7 +13849,7 @@
     <row r="187" spans="1:6">
       <c r="A187" s="218"/>
       <c r="B187" s="214" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C187" s="215">
         <v>5</v>
@@ -13703,7 +13866,7 @@
     <row r="188" spans="1:6">
       <c r="A188" s="218"/>
       <c r="B188" s="214" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C188" s="215">
         <v>2</v>
@@ -13771,7 +13934,7 @@
     <row r="192" spans="1:6">
       <c r="A192" s="218"/>
       <c r="B192" s="221" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C192" s="215">
         <v>5</v>
@@ -13788,7 +13951,7 @@
     <row r="193" spans="1:6">
       <c r="A193" s="218"/>
       <c r="B193" s="221" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C193" s="215">
         <v>2</v>
@@ -13822,7 +13985,7 @@
     <row r="195" spans="1:6">
       <c r="A195" s="218"/>
       <c r="B195" s="221" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C195" s="215">
         <v>0.2</v>
@@ -13839,7 +14002,7 @@
     <row r="196" spans="1:6">
       <c r="A196" s="218"/>
       <c r="B196" s="221" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C196" s="215">
         <v>0.5</v>
@@ -13875,7 +14038,7 @@
         <v>45971</v>
       </c>
       <c r="B198" s="221" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C198" s="215">
         <v>1</v>
@@ -13914,7 +14077,7 @@
         <v>45972</v>
       </c>
       <c r="B200" s="221" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C200" s="215">
         <v>4.5</v>
@@ -13934,7 +14097,7 @@
     <row r="201" spans="1:6">
       <c r="A201" s="218"/>
       <c r="B201" s="221" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C201" s="215">
         <v>2</v>
@@ -13969,7 +14132,7 @@
     <row r="203" spans="1:6">
       <c r="A203" s="218"/>
       <c r="B203" s="221" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C203" s="215">
         <v>3</v>
@@ -14054,7 +14217,7 @@
     <row r="208" spans="1:6">
       <c r="A208" s="218"/>
       <c r="B208" s="221" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C208" s="215">
         <v>0.5</v>
@@ -14071,7 +14234,7 @@
     <row r="209" spans="1:6">
       <c r="A209" s="218"/>
       <c r="B209" s="221" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C209" s="215">
         <v>0.05</v>
@@ -14088,7 +14251,7 @@
     <row r="210" spans="1:6">
       <c r="A210" s="218"/>
       <c r="B210" s="221" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C210" s="215">
         <v>0.1</v>
@@ -14156,7 +14319,7 @@
     <row r="214" spans="1:6">
       <c r="A214" s="218"/>
       <c r="B214" s="221" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C214" s="215">
         <v>11.8</v>
@@ -14224,7 +14387,7 @@
     <row r="218" spans="1:6">
       <c r="A218" s="218"/>
       <c r="B218" s="221" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C218" s="215">
         <v>1</v>
@@ -14241,7 +14404,7 @@
     <row r="219" spans="1:6">
       <c r="A219" s="218"/>
       <c r="B219" s="221" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C219" s="215">
         <v>0.5</v>
@@ -14382,7 +14545,7 @@
     <row r="227" spans="1:6">
       <c r="A227" s="222"/>
       <c r="B227" s="221" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C227" s="215">
         <v>3</v>
@@ -14401,7 +14564,7 @@
         <v>45973</v>
       </c>
       <c r="B228" s="221" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C228" s="215">
         <v>1</v>
@@ -14455,7 +14618,7 @@
     <row r="231" spans="1:6">
       <c r="A231" s="218"/>
       <c r="B231" s="221" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C231" s="215">
         <v>0.2</v>
@@ -14557,7 +14720,7 @@
     <row r="237" spans="1:6">
       <c r="A237" s="218"/>
       <c r="B237" s="221" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C237" s="232">
         <v>2</v>
@@ -14591,7 +14754,7 @@
     <row r="239" spans="1:6">
       <c r="A239" s="218"/>
       <c r="B239" s="221" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C239" s="232">
         <v>1</v>
@@ -14608,7 +14771,7 @@
     <row r="240" spans="1:6">
       <c r="A240" s="218"/>
       <c r="B240" s="221" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C240" s="232">
         <v>1</v>
@@ -14727,7 +14890,7 @@
     <row r="247" spans="1:6">
       <c r="A247" s="218"/>
       <c r="B247" s="221" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C247" s="232">
         <v>0.07</v>
@@ -14785,7 +14948,7 @@
         <v>45974</v>
       </c>
       <c r="B250" s="221" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C250" s="232">
         <v>1</v>
@@ -14805,7 +14968,7 @@
     <row r="251" spans="1:6">
       <c r="A251" s="218"/>
       <c r="B251" s="221" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C251" s="232">
         <v>2</v>
@@ -14822,7 +14985,7 @@
     <row r="252" spans="1:6">
       <c r="A252" s="218"/>
       <c r="B252" s="221" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C252" s="232">
         <v>0.5</v>
@@ -14839,7 +15002,7 @@
     <row r="253" spans="1:6">
       <c r="A253" s="218"/>
       <c r="B253" s="221" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C253" s="232">
         <v>0.3</v>
@@ -14975,7 +15138,7 @@
     <row r="261" spans="1:6">
       <c r="A261" s="218"/>
       <c r="B261" s="221" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C261" s="215">
         <v>0.2</v>
@@ -15009,7 +15172,7 @@
     <row r="263" spans="1:6">
       <c r="A263" s="218"/>
       <c r="B263" s="221" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C263" s="215">
         <v>0.07</v>
@@ -15218,7 +15381,7 @@
     <row r="275" spans="1:6">
       <c r="A275" s="218"/>
       <c r="B275" s="221" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C275" s="215">
         <v>1</v>
@@ -15269,7 +15432,7 @@
     <row r="278" spans="1:6">
       <c r="A278" s="218"/>
       <c r="B278" s="221" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C278" s="215">
         <v>0.3</v>
@@ -15286,7 +15449,7 @@
     <row r="279" spans="1:6">
       <c r="A279" s="218"/>
       <c r="B279" s="221" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C279" s="215">
         <v>1</v>
@@ -15322,7 +15485,7 @@
         <v>45974</v>
       </c>
       <c r="B281" s="221" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C281" s="215">
         <v>7.5</v>
@@ -15342,7 +15505,7 @@
     <row r="282" spans="1:6">
       <c r="A282" s="218"/>
       <c r="B282" s="221" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C282" s="215">
         <v>3</v>
@@ -15359,7 +15522,7 @@
     <row r="283" spans="1:7">
       <c r="A283" s="218"/>
       <c r="B283" s="221" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C283" s="215">
         <v>1</v>
@@ -15377,7 +15540,7 @@
     <row r="284" spans="1:6">
       <c r="A284" s="218"/>
       <c r="B284" s="221" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C284" s="215">
         <v>0.5</v>
@@ -15412,7 +15575,7 @@
     <row r="286" spans="1:6">
       <c r="A286" s="218"/>
       <c r="B286" s="221" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C286" s="215">
         <v>0.1</v>
@@ -15446,7 +15609,7 @@
     <row r="288" spans="1:6">
       <c r="A288" s="218"/>
       <c r="B288" s="221" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C288" s="215">
         <v>3</v>
@@ -15463,7 +15626,7 @@
     <row r="289" spans="1:6">
       <c r="A289" s="218"/>
       <c r="B289" s="221" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C289" s="215">
         <v>1</v>
@@ -15480,7 +15643,7 @@
     <row r="290" spans="1:6">
       <c r="A290" s="222"/>
       <c r="B290" s="221" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C290" s="215">
         <v>1</v>
@@ -15559,7 +15722,7 @@
     <row r="294" spans="1:6">
       <c r="A294" s="218"/>
       <c r="B294" s="221" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C294" s="215">
         <v>5</v>
@@ -15644,7 +15807,7 @@
     <row r="299" spans="1:6">
       <c r="A299" s="218"/>
       <c r="B299" s="221" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C299" s="215">
         <v>1</v>
@@ -15661,7 +15824,7 @@
     <row r="300" spans="1:6">
       <c r="A300" s="218"/>
       <c r="B300" s="221" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="C300" s="215">
         <v>2</v>
@@ -15695,7 +15858,7 @@
     <row r="302" spans="1:6">
       <c r="A302" s="218"/>
       <c r="B302" s="221" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C302" s="215">
         <v>0.1</v>
@@ -15765,7 +15928,7 @@
         <v>45975</v>
       </c>
       <c r="B306" s="221" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C306" s="215">
         <v>1</v>
@@ -15836,7 +15999,7 @@
     <row r="310" spans="1:6">
       <c r="A310" s="222"/>
       <c r="B310" s="221" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C310" s="215">
         <v>2</v>
@@ -15897,7 +16060,7 @@
     <row r="313" spans="1:6">
       <c r="A313" s="218"/>
       <c r="B313" s="221" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C313" s="215">
         <v>3</v>
@@ -15914,7 +16077,7 @@
     <row r="314" spans="1:6">
       <c r="A314" s="218"/>
       <c r="B314" s="221" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C314" s="215">
         <v>0.1</v>
@@ -15931,7 +16094,7 @@
     <row r="315" spans="1:6">
       <c r="A315" s="218"/>
       <c r="B315" s="221" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C315" s="215">
         <v>0.05</v>
@@ -15948,7 +16111,7 @@
     <row r="316" spans="1:6">
       <c r="A316" s="218"/>
       <c r="B316" s="221" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C316" s="215">
         <v>0.1</v>
@@ -15965,7 +16128,7 @@
     <row r="317" spans="1:6">
       <c r="A317" s="218"/>
       <c r="B317" s="221" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C317" s="215">
         <v>1</v>
@@ -15982,7 +16145,7 @@
     <row r="318" spans="1:8">
       <c r="A318" s="218"/>
       <c r="B318" s="221" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C318" s="215">
         <v>1</v>
@@ -16000,7 +16163,7 @@
     <row r="319" spans="1:6">
       <c r="A319" s="218"/>
       <c r="B319" s="221" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C319" s="215">
         <v>1</v>
@@ -16017,7 +16180,7 @@
     <row r="320" spans="1:6">
       <c r="A320" s="218"/>
       <c r="B320" s="221" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C320" s="215">
         <v>0.5</v>
@@ -16085,7 +16248,7 @@
     <row r="324" spans="1:6">
       <c r="A324" s="222"/>
       <c r="B324" s="221" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C324" s="215">
         <v>2</v>
@@ -16104,7 +16267,7 @@
         <v>45976</v>
       </c>
       <c r="B325" s="221" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C325" s="215">
         <v>0.2</v>
@@ -16141,7 +16304,7 @@
     <row r="327" spans="1:6">
       <c r="A327" s="218"/>
       <c r="B327" s="221" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C327" s="215">
         <v>0.5</v>
@@ -16294,7 +16457,7 @@
     <row r="336" spans="1:6">
       <c r="A336" s="218"/>
       <c r="B336" s="221" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C336" s="215">
         <v>4</v>
@@ -16311,7 +16474,7 @@
     <row r="337" spans="1:6">
       <c r="A337" s="218"/>
       <c r="B337" s="221" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C337" s="215">
         <v>1</v>
@@ -16328,7 +16491,7 @@
     <row r="338" spans="1:6">
       <c r="A338" s="218"/>
       <c r="B338" s="221" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C338" s="215">
         <v>2</v>
@@ -16379,7 +16542,7 @@
     <row r="341" spans="1:6">
       <c r="A341" s="218"/>
       <c r="B341" s="221" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C341" s="215">
         <v>2</v>
@@ -16396,7 +16559,7 @@
     <row r="342" spans="1:6">
       <c r="A342" s="218"/>
       <c r="B342" s="221" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C342" s="215">
         <v>1</v>
@@ -16413,7 +16576,7 @@
     <row r="343" spans="1:6">
       <c r="A343" s="218"/>
       <c r="B343" s="221" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C343" s="215">
         <v>1</v>
@@ -16464,7 +16627,7 @@
     <row r="346" spans="1:6">
       <c r="A346" s="222"/>
       <c r="B346" s="221" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C346" s="215">
         <v>0.5</v>
@@ -16503,7 +16666,7 @@
     <row r="348" spans="1:6">
       <c r="A348" s="218"/>
       <c r="B348" s="221" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C348" s="215">
         <v>1</v>
@@ -16571,7 +16734,7 @@
     <row r="352" spans="1:6">
       <c r="A352" s="218"/>
       <c r="B352" s="221" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C352" s="215">
         <v>1</v>
@@ -16588,7 +16751,7 @@
     <row r="353" spans="1:6">
       <c r="A353" s="218"/>
       <c r="B353" s="221" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C353" s="215">
         <v>0.2</v>
@@ -16656,7 +16819,7 @@
     <row r="357" spans="1:6">
       <c r="A357" s="218"/>
       <c r="B357" s="221" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C357" s="215">
         <v>0.5</v>
@@ -16673,7 +16836,7 @@
     <row r="358" spans="1:6">
       <c r="A358" s="218"/>
       <c r="B358" s="221" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C358" s="215">
         <v>0.5</v>
@@ -16724,7 +16887,7 @@
     <row r="361" spans="1:6">
       <c r="A361" s="218"/>
       <c r="B361" s="221" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C361" s="215">
         <v>0.1</v>
@@ -16758,7 +16921,7 @@
     <row r="363" spans="1:6">
       <c r="A363" s="218"/>
       <c r="B363" s="221" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C363" s="215">
         <v>2</v>
@@ -16775,7 +16938,7 @@
     <row r="364" spans="1:6">
       <c r="A364" s="218"/>
       <c r="B364" s="221" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C364" s="215">
         <v>0.2</v>
@@ -16899,7 +17062,7 @@
     <row r="371" spans="1:6">
       <c r="A371" s="218"/>
       <c r="B371" s="221" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C371" s="215">
         <v>2</v>
@@ -16916,7 +17079,7 @@
     <row r="372" spans="1:6">
       <c r="A372" s="218"/>
       <c r="B372" s="221" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C372" s="215">
         <v>1</v>
@@ -16933,7 +17096,7 @@
     <row r="373" spans="1:6">
       <c r="A373" s="218"/>
       <c r="B373" s="221" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C373" s="215">
         <v>2</v>
@@ -16950,7 +17113,7 @@
     <row r="374" spans="1:6">
       <c r="A374" s="218"/>
       <c r="B374" s="221" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C374" s="215">
         <v>1</v>
@@ -17018,7 +17181,7 @@
     <row r="378" spans="1:6">
       <c r="A378" s="218"/>
       <c r="B378" s="221" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C378" s="215">
         <v>5</v>
@@ -17035,7 +17198,7 @@
     <row r="379" spans="1:6">
       <c r="A379" s="218"/>
       <c r="B379" s="221" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C379" s="215">
         <v>0.5</v>
@@ -17052,7 +17215,7 @@
     <row r="380" spans="1:6">
       <c r="A380" s="218"/>
       <c r="B380" s="221" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C380" s="215">
         <v>0.5</v>
@@ -17103,7 +17266,7 @@
     <row r="383" spans="1:6">
       <c r="A383" s="218"/>
       <c r="B383" s="221" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C383" s="215">
         <v>0.5</v>
@@ -17120,7 +17283,7 @@
     <row r="384" spans="1:6">
       <c r="A384" s="218"/>
       <c r="B384" s="221" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C384" s="215">
         <v>2</v>
@@ -17137,7 +17300,7 @@
     <row r="385" spans="1:6">
       <c r="A385" s="222"/>
       <c r="B385" s="221" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C385" s="215">
         <v>0.2</v>
@@ -17156,7 +17319,7 @@
         <v>45978</v>
       </c>
       <c r="B386" s="221" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C386" s="215">
         <v>0.5</v>
@@ -17176,7 +17339,7 @@
     <row r="387" spans="1:6">
       <c r="A387" s="218"/>
       <c r="B387" s="221" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C387" s="215">
         <v>0.1</v>
@@ -17227,7 +17390,7 @@
     <row r="390" spans="1:6">
       <c r="A390" s="218"/>
       <c r="B390" s="221" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C390" s="215">
         <v>2</v>
@@ -17312,7 +17475,7 @@
     <row r="395" spans="1:6">
       <c r="A395" s="218"/>
       <c r="B395" s="221" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C395" s="215">
         <v>2</v>
@@ -17329,7 +17492,7 @@
     <row r="396" spans="1:7">
       <c r="A396" s="218"/>
       <c r="B396" s="221" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C396" s="215">
         <v>2</v>
@@ -17432,7 +17595,7 @@
     <row r="402" spans="1:6">
       <c r="A402" s="218"/>
       <c r="B402" s="221" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C402" s="215">
         <v>0.1</v>
@@ -17522,7 +17685,7 @@
     <row r="407" spans="1:6">
       <c r="A407" s="218"/>
       <c r="B407" s="221" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C407" s="215">
         <v>1</v>
@@ -17607,7 +17770,7 @@
     <row r="412" spans="1:6">
       <c r="A412" s="218"/>
       <c r="B412" s="221" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C412" s="215">
         <v>0.1</v>
@@ -17624,7 +17787,7 @@
     <row r="413" spans="1:6">
       <c r="A413" s="218"/>
       <c r="B413" s="221" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C413" s="215">
         <v>0.1</v>
@@ -17658,7 +17821,7 @@
     <row r="415" spans="1:6">
       <c r="A415" s="218"/>
       <c r="B415" s="221" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C415" s="215">
         <v>0.05</v>
@@ -17692,7 +17855,7 @@
     <row r="417" spans="1:6">
       <c r="A417" s="218"/>
       <c r="B417" s="221" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C417" s="215">
         <v>222</v>
@@ -17726,7 +17889,7 @@
     <row r="419" spans="1:6">
       <c r="A419" s="218"/>
       <c r="B419" s="221" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C419" s="215">
         <v>2.3</v>
@@ -17884,7 +18047,7 @@
     <row r="428" spans="1:6">
       <c r="A428" s="218"/>
       <c r="B428" s="221" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C428" s="215">
         <v>1</v>
@@ -17901,7 +18064,7 @@
     <row r="429" spans="1:6">
       <c r="A429" s="218"/>
       <c r="B429" s="221" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C429" s="215">
         <v>0.1</v>
@@ -17918,7 +18081,7 @@
     <row r="430" spans="1:6">
       <c r="A430" s="218"/>
       <c r="B430" s="221" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C430" s="215">
         <v>0.05</v>
@@ -17952,7 +18115,7 @@
     <row r="432" spans="1:6">
       <c r="A432" s="218"/>
       <c r="B432" s="221" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C432" s="215">
         <v>1</v>
@@ -17986,7 +18149,7 @@
     <row r="434" spans="1:6">
       <c r="A434" s="218"/>
       <c r="B434" s="221" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C434" s="215">
         <v>0.5</v>
@@ -18020,7 +18183,7 @@
     <row r="436" spans="1:6">
       <c r="A436" s="218"/>
       <c r="B436" s="221" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C436" s="215">
         <v>6</v>
@@ -18054,7 +18217,7 @@
     <row r="438" spans="1:6">
       <c r="A438" s="222"/>
       <c r="B438" s="221" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C438" s="215">
         <v>1</v>
@@ -20015,16 +20178,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="176" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C1" s="176" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D1" s="176" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="176" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F1" s="176" t="s">
         <v>4</v>
@@ -20038,7 +20201,7 @@
         <v>45963</v>
       </c>
       <c r="B2" s="178" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C2" s="179">
         <v>4.7</v>
@@ -20062,7 +20225,7 @@
     <row r="3" s="173" customFormat="1" ht="84" customHeight="1" spans="1:7">
       <c r="A3" s="184"/>
       <c r="B3" s="178" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C3" s="179">
         <v>1.7</v>
@@ -20080,7 +20243,7 @@
     <row r="4" s="173" customFormat="1" ht="84" customHeight="1" spans="1:7">
       <c r="A4" s="184"/>
       <c r="B4" s="178" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C4" s="179">
         <v>5</v>
@@ -20100,7 +20263,7 @@
         <v>45965</v>
       </c>
       <c r="B5" s="187" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C5" s="179">
         <v>3</v>
@@ -20124,7 +20287,7 @@
     <row r="6" s="173" customFormat="1" ht="126" customHeight="1" spans="1:7">
       <c r="A6" s="184"/>
       <c r="B6" s="187" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C6" s="179">
         <v>2.4</v>
@@ -20144,7 +20307,7 @@
         <v>45968</v>
       </c>
       <c r="B7" s="188" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C7" s="179">
         <v>3</v>
@@ -20168,7 +20331,7 @@
     <row r="8" s="173" customFormat="1" ht="50.4" customHeight="1" spans="1:7">
       <c r="A8" s="184"/>
       <c r="B8" s="189" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C8" s="179">
         <v>3</v>
@@ -20186,7 +20349,7 @@
     <row r="9" s="173" customFormat="1" ht="50.4" customHeight="1" spans="1:7">
       <c r="A9" s="184"/>
       <c r="B9" s="189" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C9" s="179">
         <v>1.9</v>
@@ -20201,7 +20364,7 @@
     <row r="10" s="173" customFormat="1" ht="50.4" customHeight="1" spans="1:7">
       <c r="A10" s="184"/>
       <c r="B10" s="189" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C10" s="179">
         <v>1.7</v>
@@ -20216,7 +20379,7 @@
     <row r="11" s="173" customFormat="1" ht="50.4" customHeight="1" spans="1:7">
       <c r="A11" s="190"/>
       <c r="B11" s="189" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C11" s="179">
         <v>13.8</v>
@@ -20236,7 +20399,7 @@
         <v>45972</v>
       </c>
       <c r="B12" s="189" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C12" s="179">
         <v>5</v>
@@ -20260,7 +20423,7 @@
     <row r="13" s="173" customFormat="1" ht="126" customHeight="1" spans="1:7">
       <c r="A13" s="184"/>
       <c r="B13" s="189" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C13" s="179">
         <v>2</v>
@@ -20280,7 +20443,7 @@
         <v>45974</v>
       </c>
       <c r="B14" s="189" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C14" s="179">
         <v>3.8</v>
@@ -20304,7 +20467,7 @@
     <row r="15" s="173" customFormat="1" ht="84" customHeight="1" spans="1:7">
       <c r="A15" s="184"/>
       <c r="B15" s="189" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C15" s="179">
         <v>5</v>
@@ -20322,7 +20485,7 @@
     <row r="16" s="173" customFormat="1" ht="84" customHeight="1" spans="1:7">
       <c r="A16" s="190"/>
       <c r="B16" s="193" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C16" s="179">
         <v>5.3</v>
@@ -20342,7 +20505,7 @@
         <v>45978</v>
       </c>
       <c r="B17" s="193" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C17" s="179">
         <v>14.6</v>
@@ -20366,7 +20529,7 @@
     <row r="18" s="173" customFormat="1" ht="51" customHeight="1" spans="1:7">
       <c r="A18" s="184"/>
       <c r="B18" s="193" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C18" s="179">
         <v>5.6</v>
@@ -20384,7 +20547,7 @@
     <row r="19" s="173" customFormat="1" ht="51" customHeight="1" spans="1:7">
       <c r="A19" s="184"/>
       <c r="B19" s="193" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C19" s="179">
         <v>3.6</v>
@@ -20402,7 +20565,7 @@
     <row r="20" s="173" customFormat="1" ht="51" customHeight="1" spans="1:7">
       <c r="A20" s="184"/>
       <c r="B20" s="193" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C20" s="179">
         <v>4.4</v>
@@ -20420,7 +20583,7 @@
     <row r="21" s="173" customFormat="1" ht="51" customHeight="1" spans="1:7">
       <c r="A21" s="190"/>
       <c r="B21" s="193" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C21" s="179">
         <v>5</v>
@@ -20940,16 +21103,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="139" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C1" s="139" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D1" s="139" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E1" s="139" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F1" s="139" t="s">
         <v>3</v>
@@ -20966,10 +21129,10 @@
         <v>45966</v>
       </c>
       <c r="B2" s="142" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C2" s="143" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D2" s="144">
         <v>2</v>
@@ -21095,7 +21258,7 @@
       <c r="C12" s="171"/>
       <c r="D12" s="171"/>
       <c r="E12" s="170" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F12" s="171"/>
       <c r="G12" s="171"/>
@@ -21153,22 +21316,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="112" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C1" s="113" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D1" s="113" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E1" s="112" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F1" s="112" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="112" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H1" s="112" t="s">
         <v>5</v>
@@ -21179,10 +21342,10 @@
         <v>45965</v>
       </c>
       <c r="B2" s="114" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C2" s="115" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D2" s="116">
         <v>7.9</v>
@@ -21208,7 +21371,7 @@
       <c r="A3" s="120"/>
       <c r="B3" s="120"/>
       <c r="C3" s="121" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D3" s="122">
         <v>15.4</v>
@@ -21229,10 +21392,10 @@
         <v>45968</v>
       </c>
       <c r="B4" s="114" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C4" s="121" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D4" s="122">
         <v>5.8</v>
@@ -21258,7 +21421,7 @@
       <c r="A5" s="126"/>
       <c r="B5" s="126"/>
       <c r="C5" s="121" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D5" s="122">
         <v>10.6</v>
@@ -21278,7 +21441,7 @@
       <c r="A6" s="120"/>
       <c r="B6" s="120"/>
       <c r="C6" s="121" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D6" s="122">
         <v>5.1</v>
@@ -21298,10 +21461,10 @@
         <v>45975</v>
       </c>
       <c r="B7" s="114" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="D7" s="122">
         <v>5.8</v>
@@ -21326,7 +21489,7 @@
       <c r="A8" s="126"/>
       <c r="B8" s="126"/>
       <c r="C8" s="4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D8" s="122">
         <v>10.5</v>
@@ -21346,10 +21509,10 @@
         <v>45980</v>
       </c>
       <c r="B9" s="114" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C9" s="121" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D9" s="122">
         <v>4.85</v>
@@ -21375,7 +21538,7 @@
       <c r="A10" s="120"/>
       <c r="B10" s="126"/>
       <c r="C10" s="121" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D10" s="122">
         <v>18.895</v>
@@ -21483,16 +21646,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C1" s="83" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D1" s="83" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E1" s="83" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F1" s="83" t="s">
         <v>3</v>
@@ -21504,7 +21667,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="83" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" ht="55" customHeight="1" spans="1:9">
@@ -21512,10 +21675,10 @@
         <v>45962</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C2" s="86" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D2" s="87">
         <v>11.79</v>
@@ -21541,7 +21704,7 @@
       <c r="A3" s="91"/>
       <c r="B3" s="92"/>
       <c r="C3" s="86" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D3" s="87">
         <v>12.62</v>
@@ -21562,10 +21725,10 @@
         <v>45976</v>
       </c>
       <c r="B4" s="85" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D4" s="87">
         <v>11.228</v>
@@ -21591,7 +21754,7 @@
       <c r="A5" s="91"/>
       <c r="B5" s="92"/>
       <c r="C5" s="86" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D5" s="87">
         <v>24.44</v>
@@ -21715,16 +21878,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D1" s="73" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E1" s="73" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F1" s="73" t="s">
         <v>3</v>
@@ -21738,10 +21901,10 @@
         <v>45976</v>
       </c>
       <c r="B2" s="273" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C2" s="74" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D2" s="75">
         <v>4</v>
@@ -21813,7 +21976,7 @@
   <sheetData>
     <row r="1" s="62" customFormat="1" ht="44" customHeight="1" spans="1:5">
       <c r="A1" s="63" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B1" s="64" t="s">
         <v>0</v>
@@ -21822,10 +21985,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="64" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E1" s="64" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" ht="246" customHeight="1" spans="1:5">
@@ -21837,7 +22000,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="68" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B3" s="69"/>
       <c r="C3" s="70"/>
@@ -21880,16 +22043,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>3</v>
